--- a/output/fit_clients/fit_round_250.xlsx
+++ b/output/fit_clients/fit_round_250.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1571045082.043668</v>
+        <v>2129819608.390248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07201816783550927</v>
+        <v>0.104777522332945</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0432705059278523</v>
+        <v>0.02756441563921923</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>785522478.9509591</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2245700746.482988</v>
+        <v>1783545960.858077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1449749446635909</v>
+        <v>0.176910169206534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03632269107870153</v>
+        <v>0.0418736838377558</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1122850451.34363</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3728559204.380819</v>
+        <v>4774528658.383477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1160562918028401</v>
+        <v>0.152060662438432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03300259797837455</v>
+        <v>0.02694787727096682</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1864279597.141351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3790149870.351811</v>
+        <v>3465539881.354318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097316096336531</v>
+        <v>0.07959091245561592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04013976840337825</v>
+        <v>0.04014387660755662</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>98</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1895074952.751065</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1867182748.181595</v>
+        <v>2836247317.409235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1088606297500897</v>
+        <v>0.1466113942415862</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0392631937770631</v>
+        <v>0.05467545062860861</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>933591418.0544772</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1940115247.185096</v>
+        <v>2435318919.541309</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06129989025785183</v>
+        <v>0.06534880980189586</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04584906867689918</v>
+        <v>0.04204315529117079</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>970057690.5108057</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3102185719.710281</v>
+        <v>3523802614.929972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1554131483220922</v>
+        <v>0.1871800897638942</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02743812123133127</v>
+        <v>0.02524374453092222</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1551092927.806462</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1599820823.774226</v>
+        <v>1403411536.523644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1542336534284711</v>
+        <v>0.1981224344066422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02448125087637694</v>
+        <v>0.02939979333997538</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>799910494.015255</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4177677996.540038</v>
+        <v>4809826813.030649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2151985597467179</v>
+        <v>0.197477826840773</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04098864121183799</v>
+        <v>0.0402842026494867</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>105</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2088839033.891951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3910902759.496791</v>
+        <v>3776711198.769354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1258918564738055</v>
+        <v>0.1873224315942625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03072494254514935</v>
+        <v>0.03039386404512261</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>103</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1955451386.189964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2538389505.225521</v>
+        <v>2447619347.229329</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1375527365409529</v>
+        <v>0.1304482431572296</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05144779325284381</v>
+        <v>0.03554791772072678</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>84</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1269194728.326921</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3610678468.861211</v>
+        <v>4389020509.663571</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08108836615207891</v>
+        <v>0.09700261333308481</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03088735808089007</v>
+        <v>0.03143107138984368</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>84</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1805339309.118998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2724761697.531508</v>
+        <v>3341976196.911183</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1513790391323853</v>
+        <v>0.1636445050412103</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03264022780296008</v>
+        <v>0.04144390826884103</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>81</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1362380903.116955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1590445579.400553</v>
+        <v>1563566199.874505</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08951712725609985</v>
+        <v>0.09096894424606315</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04389052248472813</v>
+        <v>0.03066029360098392</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>795222895.699881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2163587285.520026</v>
+        <v>2001477186.308497</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08368467833770768</v>
+        <v>0.07263940819080028</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03565741676746484</v>
+        <v>0.0452703622171439</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1081793703.62582</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4178323522.498095</v>
+        <v>3286706490.432003</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1250258410804218</v>
+        <v>0.1750668082592234</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05064121017698039</v>
+        <v>0.04933859145544783</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>73</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2089161786.977585</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3724630900.103861</v>
+        <v>3237548553.475219</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1675540081416723</v>
+        <v>0.1604475971495383</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02918530061508113</v>
+        <v>0.02523579812472065</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>82</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1862315427.801663</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1296172563.982874</v>
+        <v>862615509.3522017</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1550908602758204</v>
+        <v>0.1552556162569415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02097084591678552</v>
+        <v>0.01957277885721326</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>648086383.3132004</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2481025770.444549</v>
+        <v>2793349480.774576</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1117456286068917</v>
+        <v>0.102611716540507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02857365959283631</v>
+        <v>0.02117557605920483</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1240512860.306725</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2064350449.760734</v>
+        <v>2144803429.197511</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08210808426722979</v>
+        <v>0.09870526504272834</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04211082852768711</v>
+        <v>0.03254391692650101</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1032175254.643126</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2763459618.956768</v>
+        <v>3625982916.102152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08783234439359101</v>
+        <v>0.1026405351911189</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05389287350252256</v>
+        <v>0.03759290952262236</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1381729885.167194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1480856359.65665</v>
+        <v>1040288447.327686</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1485877083699702</v>
+        <v>0.1503356804452624</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04991186441562825</v>
+        <v>0.04049791207357423</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>740428168.9885128</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4059533345.472744</v>
+        <v>2691079429.667181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1407863980814305</v>
+        <v>0.09020406924691897</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02565072799479505</v>
+        <v>0.02708920400224078</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>73</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2029766636.710359</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1010299639.963488</v>
+        <v>1461075725.855757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07809418977974113</v>
+        <v>0.1216703437969127</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02501999864876967</v>
+        <v>0.02553914097305842</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>505149881.5930477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1005329228.9314</v>
+        <v>887317103.7594669</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07987969228541353</v>
+        <v>0.1114355606246643</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02780502045739902</v>
+        <v>0.03179207831637581</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>502664587.8137993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3794141445.592306</v>
+        <v>3450233701.360675</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1507713028909689</v>
+        <v>0.1300057922035382</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02679000111650175</v>
+        <v>0.01976743310763328</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1897070743.190398</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3377018624.298087</v>
+        <v>2380420366.623766</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1034179740561522</v>
+        <v>0.1318328898144321</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04063612519515566</v>
+        <v>0.045883258111584</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1688509356.116187</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5692126821.146602</v>
+        <v>4796360436.16794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1413668218273218</v>
+        <v>0.1472156277252726</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04310097675914958</v>
+        <v>0.02852503165768159</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>110</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2846063310.151874</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2201756957.80719</v>
+        <v>1657059881.962217</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1244689848180382</v>
+        <v>0.1348295618235712</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03475341723658174</v>
+        <v>0.02856782384183064</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1100878539.334151</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1272158852.909484</v>
+        <v>1496522044.721471</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1049662981554854</v>
+        <v>0.09773210923337801</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05049318127934167</v>
+        <v>0.03455359819279375</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>636079360.932649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1465131763.850695</v>
+        <v>1832727312.08399</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1196870418436827</v>
+        <v>0.07481398769903458</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03849739655127876</v>
+        <v>0.03496124066013539</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>732565943.0541799</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2609889985.409776</v>
+        <v>2442548105.488429</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1775207343198408</v>
+        <v>0.1548266455267215</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05307441562803913</v>
+        <v>0.06079321622181524</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1304945021.539537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>980688344.2654797</v>
+        <v>1280845198.330824</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1098387298311688</v>
+        <v>0.08989773507480611</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02472140988709276</v>
+        <v>0.0219939995289889</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>490344213.1888258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1253873885.793195</v>
+        <v>1315063329.463746</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1185508363618853</v>
+        <v>0.1170396239759074</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04026113773677804</v>
+        <v>0.03416227453003785</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>626936905.7935504</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2055248705.819743</v>
+        <v>2334412079.256525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1195707662640885</v>
+        <v>0.133871899990353</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02521247604330416</v>
+        <v>0.02846375770823045</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>63</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1027624410.511259</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2029266967.825278</v>
+        <v>2564974478.095807</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1075210840125336</v>
+        <v>0.06923921343824312</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0323295123755218</v>
+        <v>0.03490373741863509</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>65</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1014633515.246523</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1491108023.373678</v>
+        <v>2056324898.805699</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1055300035776809</v>
+        <v>0.08522566458088912</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03403108742357505</v>
+        <v>0.0395964243183478</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>745554062.1896321</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2026938065.545958</v>
+        <v>1520716120.627714</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1273462451649067</v>
+        <v>0.1814147282499744</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03064022654451693</v>
+        <v>0.02859102117077847</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1013469023.196563</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1103964039.045685</v>
+        <v>1750554073.347437</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09946482077250136</v>
+        <v>0.1386126924147001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04788613701479116</v>
+        <v>0.05476171851228383</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>551982084.8548957</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2408189540.325907</v>
+        <v>2119436928.35665</v>
       </c>
       <c r="F41" t="n">
-        <v>0.100315639573443</v>
+        <v>0.1667680570803592</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04370178166882931</v>
+        <v>0.03997048676357835</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>60</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1204094804.424062</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4002092808.920251</v>
+        <v>4184929505.652479</v>
       </c>
       <c r="F42" t="n">
-        <v>0.122488021861221</v>
+        <v>0.1032679719894996</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03710461040525699</v>
+        <v>0.04080548939737927</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>84</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2001046433.892451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2637472985.083532</v>
+        <v>2093155636.674069</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1623844898013558</v>
+        <v>0.1685544551982273</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02047204006139924</v>
+        <v>0.02482172135994041</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>88</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1318736527.35665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1743917098.03476</v>
+        <v>2193475427.778054</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08388496422174682</v>
+        <v>0.0875010983380675</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0260387547479103</v>
+        <v>0.03529451292635837</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>871958604.2481341</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1688397553.967917</v>
+        <v>2305916287.676849</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1291485622307665</v>
+        <v>0.1330846071359741</v>
       </c>
       <c r="G45" t="n">
-        <v>0.055103375313453</v>
+        <v>0.04679015411252373</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>844198736.4741162</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3699211342.798978</v>
+        <v>5305550721.019944</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1300320121281681</v>
+        <v>0.1535583390340988</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05787947936492852</v>
+        <v>0.04001281906061525</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>89</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1849605623.695387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3214775862.071184</v>
+        <v>4547040287.135983</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1394592566807193</v>
+        <v>0.1405522387119822</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04322533952272137</v>
+        <v>0.05194529124927724</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>67</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1607387885.652762</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3144192654.914123</v>
+        <v>3059109966.281617</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08100954010770051</v>
+        <v>0.06762142946820436</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02898403315817681</v>
+        <v>0.0351483354046636</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1572096411.541304</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1937442281.699449</v>
+        <v>1708992425.090779</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1808740326292196</v>
+        <v>0.1884685882063175</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03529394958979667</v>
+        <v>0.03948655144387257</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>968721104.8632212</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3220490047.350545</v>
+        <v>3125753738.887616</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1317539339608673</v>
+        <v>0.1223863961974281</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03899484074949572</v>
+        <v>0.04652355461100224</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>85</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1610245067.8298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1108211246.396116</v>
+        <v>993847887.1353619</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1893754118639687</v>
+        <v>0.1294403618848025</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05243081454340711</v>
+        <v>0.05148813440978258</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>554105689.622121</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3716533068.736167</v>
+        <v>3846277120.772003</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1094113934256143</v>
+        <v>0.1099314802612327</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0508558738752235</v>
+        <v>0.05370354419820893</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>103</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1858266607.522826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3702651065.278195</v>
+        <v>2597958584.813127</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1513385983130398</v>
+        <v>0.1592616403638007</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02643681898695792</v>
+        <v>0.02300692678362493</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1851325516.551651</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3892427208.181528</v>
+        <v>3996215212.146098</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1213490439698423</v>
+        <v>0.115874621858162</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03934042273204189</v>
+        <v>0.03385175074169957</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1946213659.708132</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4474112250.01419</v>
+        <v>4939746655.340352</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1541570619881004</v>
+        <v>0.1635481274622858</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0236036159812797</v>
+        <v>0.02497297565109311</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2237056120.833002</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1242921194.589221</v>
+        <v>1366075647.21406</v>
       </c>
       <c r="F56" t="n">
-        <v>0.141104342631427</v>
+        <v>0.1527944295450445</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05340363756393071</v>
+        <v>0.04998772874266243</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>621460677.6546994</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4591129463.32754</v>
+        <v>2840201968.371855</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1250540880748457</v>
+        <v>0.161383855111184</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02120691393493436</v>
+        <v>0.02574138644094728</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>79</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2295564869.661898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1253855235.9289</v>
+        <v>1390802467.702398</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2001326020621464</v>
+        <v>0.1964876330710748</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02402155238518255</v>
+        <v>0.03282703161988958</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>626927671.5533122</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4199702519.400493</v>
+        <v>4527816568.103408</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1244737431705152</v>
+        <v>0.1072434046823537</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03483263235632467</v>
+        <v>0.03199607728339911</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2099851226.015019</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2660692292.754067</v>
+        <v>2681438783.616271</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1495473049756088</v>
+        <v>0.1991503033083009</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02821875189247194</v>
+        <v>0.02047935321983748</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>79</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1330346181.127356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2612709683.683427</v>
+        <v>2556889501.879849</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1203077098803891</v>
+        <v>0.1174718255430419</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02486634548706034</v>
+        <v>0.02247563066754133</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1306354858.826823</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1632997900.403113</v>
+        <v>1402741450.000209</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1713684798158596</v>
+        <v>0.1336608906684112</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04111323483973928</v>
+        <v>0.03201012335436199</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>816498953.1702266</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4107600346.291556</v>
+        <v>5537508094.863332</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08010183185246551</v>
+        <v>0.08415392048909939</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03884974845653091</v>
+        <v>0.03416670145271209</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2053800230.713419</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4652950962.922728</v>
+        <v>3438073948.09482</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1567431601904075</v>
+        <v>0.1894482201361786</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02356162418508326</v>
+        <v>0.02393469069642622</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>78</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2326475563.242723</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5001462859.444316</v>
+        <v>5318344720.458409</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1399177246186751</v>
+        <v>0.1615867568470727</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02056436162467694</v>
+        <v>0.02596490515231437</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>90</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2500731388.544967</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3914504417.552239</v>
+        <v>5647520727.682446</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1339238479957151</v>
+        <v>0.1045200391848739</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03277242340843994</v>
+        <v>0.03128259727519041</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>73</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1957252177.803513</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2709328255.42713</v>
+        <v>2627157628.33116</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07188232751008172</v>
+        <v>0.07654117857448424</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04486147955054107</v>
+        <v>0.04830234186159594</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1354664170.582382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5993620495.194491</v>
+        <v>4982568582.279195</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1493003664747178</v>
+        <v>0.1194724080317826</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03720650269187629</v>
+        <v>0.03399388491064002</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2996810364.184445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2177383665.456557</v>
+        <v>2218975127.724163</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1634839380101823</v>
+        <v>0.1554296632769183</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05638438600419182</v>
+        <v>0.03838129143279522</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1088691860.587617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2379435364.799206</v>
+        <v>3263552827.147151</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09145611117695357</v>
+        <v>0.08743501314424204</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03079068494663077</v>
+        <v>0.03289643278202591</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>71</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1189717619.003909</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4388435304.120956</v>
+        <v>3535445821.591566</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1581516778842402</v>
+        <v>0.1163571855494126</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03315685796983395</v>
+        <v>0.02365812721108962</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>92</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2194217712.103106</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1633508772.491616</v>
+        <v>1885170408.407595</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09896646072553948</v>
+        <v>0.08074144630048655</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04596163528273706</v>
+        <v>0.04072197322155991</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>816754391.6603175</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3410594759.493793</v>
+        <v>3119003222.875431</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0897961120726482</v>
+        <v>0.09934302629058095</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04554939473273571</v>
+        <v>0.04378362106616229</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1705297338.106794</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3629933561.449726</v>
+        <v>3705673632.851795</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1364385498551248</v>
+        <v>0.1163502793823653</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02230960277561421</v>
+        <v>0.03473545329231457</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>85</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1814966791.622154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1553823684.529136</v>
+        <v>1943133749.367538</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1093015452121661</v>
+        <v>0.1024534668601666</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02728765956307112</v>
+        <v>0.02370081113335004</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>776911848.2204224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4587418684.985462</v>
+        <v>4441246631.694584</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09854952128476625</v>
+        <v>0.08420040890494641</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02241247544324779</v>
+        <v>0.02067208829888615</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2293709351.799512</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1590664059.792042</v>
+        <v>1845629752.890714</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1424328390474106</v>
+        <v>0.1247594379631903</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0306489310498852</v>
+        <v>0.02102729219824779</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>795332030.9266231</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2986135505.695848</v>
+        <v>3557489285.50294</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1110554765964504</v>
+        <v>0.09518909068119336</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05467424895981025</v>
+        <v>0.05134797482781788</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>87</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1493067791.097664</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1849239600.720411</v>
+        <v>1739350534.701595</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1512839919176577</v>
+        <v>0.1084081824144652</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03097861194756132</v>
+        <v>0.03980544182479894</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>924619895.6120187</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4476957631.606158</v>
+        <v>4806137486.871468</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08777759218137819</v>
+        <v>0.07905692413626354</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0306715604713482</v>
+        <v>0.03673213618101383</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>52</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2238478838.986883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4921242213.473676</v>
+        <v>3930115333.279179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0849346729155484</v>
+        <v>0.09105894983587107</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0236397953509396</v>
+        <v>0.0273289940530606</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2460621104.141256</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5486086260.108033</v>
+        <v>4961381869.28966</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1748339368287056</v>
+        <v>0.1451778706246561</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02156590854240798</v>
+        <v>0.02380321326458459</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>88</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2743043086.839644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1580419759.783734</v>
+        <v>2130610264.933718</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1499286428411984</v>
+        <v>0.1213013408736522</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03060651357725769</v>
+        <v>0.03442762448182018</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>790209812.9934801</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2120827485.565195</v>
+        <v>2589548457.33525</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1123473238378911</v>
+        <v>0.102914063856459</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05127036459517207</v>
+        <v>0.04894188119418532</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1060413730.126814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3252912747.633744</v>
+        <v>3646256015.190378</v>
       </c>
       <c r="F85" t="n">
-        <v>0.165359987985285</v>
+        <v>0.1274104238181537</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0561251378185788</v>
+        <v>0.05449177773952544</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>94</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1626456461.8722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1752611042.401126</v>
+        <v>2646595216.982452</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1680240478695811</v>
+        <v>0.1370155686558199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02488184736758182</v>
+        <v>0.02372683928845502</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>876305514.394853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>956338867.0107763</v>
+        <v>937977622.7259166</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1689422006597391</v>
+        <v>0.1696173599680653</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03151449785431545</v>
+        <v>0.04018658537948893</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>478169426.6273336</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2533205460.170002</v>
+        <v>3156966288.57105</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1127593222171189</v>
+        <v>0.1689756245169617</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03344406122146582</v>
+        <v>0.03807601125875675</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>98</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1266602714.391772</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2279281107.424242</v>
+        <v>2496212326.990236</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1353418400135501</v>
+        <v>0.1365280438170337</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02638361083329232</v>
+        <v>0.03004795557897177</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>84</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1139640644.658243</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2003403678.400106</v>
+        <v>1684522606.80551</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1152424245082659</v>
+        <v>0.08901249241464954</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04560616840672807</v>
+        <v>0.03442513421876457</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1001701910.093463</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1275094994.885169</v>
+        <v>1291137179.167651</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1319701035260614</v>
+        <v>0.124120745501157</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04021443937305076</v>
+        <v>0.05716568255531396</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>637547566.3223255</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2485871324.64248</v>
+        <v>2953312328.914367</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09113726677852636</v>
+        <v>0.08166212718590345</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04605991545855056</v>
+        <v>0.04127963929758129</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1242935645.205492</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3810201696.497793</v>
+        <v>3732869957.615275</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1366642566570274</v>
+        <v>0.1228760440382947</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0345786063582537</v>
+        <v>0.03377507334706215</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>79</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1905100861.141963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1673449297.106174</v>
+        <v>2039742242.307718</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1204030565503263</v>
+        <v>0.1132991411198717</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03181108028692214</v>
+        <v>0.04050122627751795</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>836724604.3973897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2106597004.362011</v>
+        <v>3072839535.321733</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1119058325365678</v>
+        <v>0.1044384071423172</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03521828397259345</v>
+        <v>0.03359496408004806</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>60</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1053298566.872863</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1972514485.281435</v>
+        <v>1891964073.576518</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1028114408034432</v>
+        <v>0.1268298059376829</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0370659430297583</v>
+        <v>0.040795136368964</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>986257232.5394778</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4457084310.775814</v>
+        <v>3436063578.264794</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1607880688269356</v>
+        <v>0.1215350475201377</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02706609261694128</v>
+        <v>0.01851677848219309</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2228542248.51347</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2741359567.867238</v>
+        <v>3591098002.049102</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09149601854744269</v>
+        <v>0.1164372258224982</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03014755023184316</v>
+        <v>0.0256349448334281</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1370679751.106753</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2766276414.496231</v>
+        <v>2699678323.476296</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1006673435667311</v>
+        <v>0.1365357208354211</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02593760777198931</v>
+        <v>0.03135441823850305</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>79</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1383138176.263787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4583434675.008812</v>
+        <v>4224296914.855333</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1390978138211643</v>
+        <v>0.14590117394407</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0272207832402842</v>
+        <v>0.022034009006876</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2291717454.748003</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2412266672.255557</v>
+        <v>3505697770.340174</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1644907090311377</v>
+        <v>0.1981387053250467</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04262809109658234</v>
+        <v>0.0416719040357223</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>101</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1206133347.510856</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_250.xlsx
+++ b/output/fit_clients/fit_round_250.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2129819608.390248</v>
+        <v>1746895097.010598</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104777522332945</v>
+        <v>0.08585579808082665</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02756441563921923</v>
+        <v>0.04286897460920198</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1783545960.858077</v>
+        <v>1905419000.390688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.176910169206534</v>
+        <v>0.1580571458785403</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0418736838377558</v>
+        <v>0.03148849302945638</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4774528658.383477</v>
+        <v>4075100811.756635</v>
       </c>
       <c r="F4" t="n">
-        <v>0.152060662438432</v>
+        <v>0.1346596257634395</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02694787727096682</v>
+        <v>0.02983097362411734</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3465539881.354318</v>
+        <v>4149524172.032892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07959091245561592</v>
+        <v>0.08264188482616397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04014387660755662</v>
+        <v>0.04228137887306103</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2836247317.409235</v>
+        <v>2689053180.472041</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1466113942415862</v>
+        <v>0.1273382811669103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05467545062860861</v>
+        <v>0.04073703822325984</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2435318919.541309</v>
+        <v>2645628804.668808</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06534880980189586</v>
+        <v>0.07818707606288604</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04204315529117079</v>
+        <v>0.04171283746062155</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3523802614.929972</v>
+        <v>2452300098.972286</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1871800897638942</v>
+        <v>0.1500043325763919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02524374453092222</v>
+        <v>0.03017036720986003</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1403411536.523644</v>
+        <v>1631275462.105358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1981224344066422</v>
+        <v>0.1317060033604035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02939979333997538</v>
+        <v>0.02978290666311737</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4809826813.030649</v>
+        <v>5220341405.73638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.197477826840773</v>
+        <v>0.1608300571945761</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0402842026494867</v>
+        <v>0.03786422811619636</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3776711198.769354</v>
+        <v>3518431616.797646</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1873224315942625</v>
+        <v>0.1756193654519992</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03039386404512261</v>
+        <v>0.03527771384485064</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2447619347.229329</v>
+        <v>2565067562.036971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1304482431572296</v>
+        <v>0.1252716644162508</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03554791772072678</v>
+        <v>0.04988817798961766</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4389020509.663571</v>
+        <v>5353542732.161555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09700261333308481</v>
+        <v>0.06330749797040862</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03143107138984368</v>
+        <v>0.02169939895635943</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3341976196.911183</v>
+        <v>2567503755.304165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1636445050412103</v>
+        <v>0.1467864872159475</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04144390826884103</v>
+        <v>0.03439084673920853</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1563566199.874505</v>
+        <v>1277406584.646236</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09096894424606315</v>
+        <v>0.07711257046400832</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03066029360098392</v>
+        <v>0.03711090350410496</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2001477186.308497</v>
+        <v>2868762195.035003</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07263940819080028</v>
+        <v>0.1093720949530314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0452703622171439</v>
+        <v>0.0438959453249785</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3286706490.432003</v>
+        <v>3397765458.818131</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1750668082592234</v>
+        <v>0.1095262306409955</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04933859145544783</v>
+        <v>0.04891890969104821</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3237548553.475219</v>
+        <v>2782207418.233844</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1604475971495383</v>
+        <v>0.1747432147912157</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02523579812472065</v>
+        <v>0.02498546431043459</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>862615509.3522017</v>
+        <v>970574524.1701142</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1552556162569415</v>
+        <v>0.1853551917172598</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01957277885721326</v>
+        <v>0.0172293166932275</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2793349480.774576</v>
+        <v>1994892434.871846</v>
       </c>
       <c r="F20" t="n">
-        <v>0.102611716540507</v>
+        <v>0.1136676148467682</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02117557605920483</v>
+        <v>0.03053091295745528</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2144803429.197511</v>
+        <v>2321716286.383424</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09870526504272834</v>
+        <v>0.07264645917988964</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03254391692650101</v>
+        <v>0.04307109429499</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3625982916.102152</v>
+        <v>2898842348.943822</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1026405351911189</v>
+        <v>0.1361762554552912</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03759290952262236</v>
+        <v>0.05320585428896976</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1040288447.327686</v>
+        <v>1294930687.730908</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1503356804452624</v>
+        <v>0.1423829055673505</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04049791207357423</v>
+        <v>0.04394467373516139</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2691079429.667181</v>
+        <v>3621866870.206708</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09020406924691897</v>
+        <v>0.1189652112202767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02708920400224078</v>
+        <v>0.0295367605339044</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1461075725.855757</v>
+        <v>1021188458.817508</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1216703437969127</v>
+        <v>0.07923110571391248</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02553914097305842</v>
+        <v>0.02453162350494492</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>887317103.7594669</v>
+        <v>1112415719.79034</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1114355606246643</v>
+        <v>0.0773097828955769</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03179207831637581</v>
+        <v>0.03148082885208803</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3450233701.360675</v>
+        <v>3132925732.05347</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1300057922035382</v>
+        <v>0.1132027785521562</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01976743310763328</v>
+        <v>0.01652699469695735</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2380420366.623766</v>
+        <v>3024962475.270869</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1318328898144321</v>
+        <v>0.1396914798287943</v>
       </c>
       <c r="G28" t="n">
-        <v>0.045883258111584</v>
+        <v>0.04365027590546105</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4796360436.16794</v>
+        <v>4856000428.873564</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1472156277252726</v>
+        <v>0.09522549178869311</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02852503165768159</v>
+        <v>0.02866566435211322</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1657059881.962217</v>
+        <v>2412217900.058362</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1348295618235712</v>
+        <v>0.138928835969118</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02856782384183064</v>
+        <v>0.03581196268909789</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1496522044.721471</v>
+        <v>1205823521.733371</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09773210923337801</v>
+        <v>0.07682550137974481</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03455359819279375</v>
+        <v>0.04799187410931631</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1832727312.08399</v>
+        <v>1419476051.532217</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07481398769903458</v>
+        <v>0.09518810279888666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03496124066013539</v>
+        <v>0.03825467812498025</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2442548105.488429</v>
+        <v>2003782569.179659</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1548266455267215</v>
+        <v>0.168277823398932</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06079321622181524</v>
+        <v>0.05438766675928943</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1280845198.330824</v>
+        <v>1310632546.742788</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08989773507480611</v>
+        <v>0.1006847286755377</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0219939995289889</v>
+        <v>0.01719832222223986</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1315063329.463746</v>
+        <v>826275672.7902771</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1170396239759074</v>
+        <v>0.0779537160653317</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03416227453003785</v>
+        <v>0.04252824429457795</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2334412079.256525</v>
+        <v>2847076338.355008</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133871899990353</v>
+        <v>0.1352263528757806</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02846375770823045</v>
+        <v>0.02077565293730487</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2564974478.095807</v>
+        <v>2662689619.126101</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06923921343824312</v>
+        <v>0.1048770588145451</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03490373741863509</v>
+        <v>0.02685828646724699</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2056324898.805699</v>
+        <v>1673241780.214741</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08522566458088912</v>
+        <v>0.08133343497679017</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0395964243183478</v>
+        <v>0.02801152770237025</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1520716120.627714</v>
+        <v>2125750222.174752</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1814147282499744</v>
+        <v>0.1229911348513048</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02859102117077847</v>
+        <v>0.02625238155396088</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1750554073.347437</v>
+        <v>1485595471.985329</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1386126924147001</v>
+        <v>0.1177254560243376</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05476171851228383</v>
+        <v>0.04253070402719447</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2119436928.35665</v>
+        <v>1916084591.497248</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1667680570803592</v>
+        <v>0.1089968708926439</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03997048676357835</v>
+        <v>0.03945259072134898</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4184929505.652479</v>
+        <v>3049490097.989558</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1032679719894996</v>
+        <v>0.1250185717459009</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04080548939737927</v>
+        <v>0.03237742018183585</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2093155636.674069</v>
+        <v>2638209173.555533</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1685544551982273</v>
+        <v>0.1387232212436724</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02482172135994041</v>
+        <v>0.023972001367776</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2193475427.778054</v>
+        <v>2016142088.783681</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0875010983380675</v>
+        <v>0.08150441778393418</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03529451292635837</v>
+        <v>0.03174378578815568</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2305916287.676849</v>
+        <v>2204554654.594938</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1330846071359741</v>
+        <v>0.133054058960953</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04679015411252373</v>
+        <v>0.0540847610237</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5305550721.019944</v>
+        <v>4198511699.8339</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1535583390340988</v>
+        <v>0.1181875636481926</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04001281906061525</v>
+        <v>0.03817235482048002</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4547040287.135983</v>
+        <v>4645793359.57515</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1405522387119822</v>
+        <v>0.1550657058756593</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05194529124927724</v>
+        <v>0.03911190045533434</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3059109966.281617</v>
+        <v>3413326666.801011</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06762142946820436</v>
+        <v>0.06797271428606251</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0351483354046636</v>
+        <v>0.02688743433338729</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1708992425.090779</v>
+        <v>1759851769.271131</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1884685882063175</v>
+        <v>0.1329621697663698</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03948655144387257</v>
+        <v>0.03273624661005921</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3125753738.887616</v>
+        <v>3104219065.88032</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1223863961974281</v>
+        <v>0.1512687018571253</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04652355461100224</v>
+        <v>0.04800657512170779</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>993847887.1353619</v>
+        <v>1529037699.820181</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1294403618848025</v>
+        <v>0.1372612635068929</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05148813440978258</v>
+        <v>0.04772003021534926</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3846277120.772003</v>
+        <v>4668484626.137878</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1099314802612327</v>
+        <v>0.122779221036184</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05370354419820893</v>
+        <v>0.04730120938375228</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2597958584.813127</v>
+        <v>3633791372.39346</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1592616403638007</v>
+        <v>0.1580783619502342</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02300692678362493</v>
+        <v>0.03147790952900994</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3996215212.146098</v>
+        <v>4388496593.847886</v>
       </c>
       <c r="F54" t="n">
-        <v>0.115874621858162</v>
+        <v>0.1643512593163362</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03385175074169957</v>
+        <v>0.0415052413931832</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4939746655.340352</v>
+        <v>3864309847.207749</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1635481274622858</v>
+        <v>0.1440529692405552</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02497297565109311</v>
+        <v>0.02711480440204359</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1366075647.21406</v>
+        <v>1482842843.826583</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1527944295450445</v>
+        <v>0.1600455873142821</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04998772874266243</v>
+        <v>0.04791950323724582</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2840201968.371855</v>
+        <v>4573409031.671987</v>
       </c>
       <c r="F57" t="n">
-        <v>0.161383855111184</v>
+        <v>0.142479849499684</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02574138644094728</v>
+        <v>0.02349516292960488</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1390802467.702398</v>
+        <v>1728755181.060623</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1964876330710748</v>
+        <v>0.1942679644428251</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03282703161988958</v>
+        <v>0.03188352412377308</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4527816568.103408</v>
+        <v>3322110144.500772</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1072434046823537</v>
+        <v>0.1146140875672866</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03199607728339911</v>
+        <v>0.03136082003166291</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2681438783.616271</v>
+        <v>2881900741.469231</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1991503033083009</v>
+        <v>0.1824288736005571</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02047935321983748</v>
+        <v>0.03335909058127987</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2556889501.879849</v>
+        <v>2873738994.689751</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1174718255430419</v>
+        <v>0.1524479838488715</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02247563066754133</v>
+        <v>0.02464152285432506</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1402741450.000209</v>
+        <v>1417935119.260758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1336608906684112</v>
+        <v>0.149742479432671</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03201012335436199</v>
+        <v>0.03079752564764791</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5537508094.863332</v>
+        <v>4615660860.167923</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08415392048909939</v>
+        <v>0.06766030009896637</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03416670145271209</v>
+        <v>0.04582750019529631</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3438073948.09482</v>
+        <v>5444466567.015464</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1894482201361786</v>
+        <v>0.1669305460395888</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02393469069642622</v>
+        <v>0.02326889611235355</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5318344720.458409</v>
+        <v>3943049531.570118</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1615867568470727</v>
+        <v>0.1269457391187938</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02596490515231437</v>
+        <v>0.0322433461341969</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5647520727.682446</v>
+        <v>3906321880.495318</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1045200391848739</v>
+        <v>0.110789404547366</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03128259727519041</v>
+        <v>0.03367470837117902</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2627157628.33116</v>
+        <v>2146245026.488301</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07654117857448424</v>
+        <v>0.07037450689917055</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04830234186159594</v>
+        <v>0.04691616197739301</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4982568582.279195</v>
+        <v>4515289283.208386</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1194724080317826</v>
+        <v>0.1421259405435042</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03399388491064002</v>
+        <v>0.03587970090023285</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2218975127.724163</v>
+        <v>1667549714.036564</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1554296632769183</v>
+        <v>0.1116545139672176</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03838129143279522</v>
+        <v>0.0449230309459545</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3263552827.147151</v>
+        <v>3097785645.994107</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08743501314424204</v>
+        <v>0.09063161492247321</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03289643278202591</v>
+        <v>0.03054111154459691</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3535445821.591566</v>
+        <v>3624355121.340676</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1163571855494126</v>
+        <v>0.1371621840703491</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02365812721108962</v>
+        <v>0.02899156602458263</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1885170408.407595</v>
+        <v>1731693657.617495</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08074144630048655</v>
+        <v>0.1056234837779553</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04072197322155991</v>
+        <v>0.03451306028686687</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3119003222.875431</v>
+        <v>3008448565.380365</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09934302629058095</v>
+        <v>0.1128158420567638</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04378362106616229</v>
+        <v>0.04063361947834131</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3705673632.851795</v>
+        <v>2747256744.442873</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1163502793823653</v>
+        <v>0.1363657767605169</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03473545329231457</v>
+        <v>0.02232343708061233</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1943133749.367538</v>
+        <v>1510679482.282162</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1024534668601666</v>
+        <v>0.132705062161673</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02370081113335004</v>
+        <v>0.02753293922646574</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4441246631.694584</v>
+        <v>5142256129.808585</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08420040890494641</v>
+        <v>0.1087834268591873</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02067208829888615</v>
+        <v>0.02508368082965881</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1845629752.890714</v>
+        <v>1888683175.214015</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1247594379631903</v>
+        <v>0.1587276403721877</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02102729219824779</v>
+        <v>0.02532824381613681</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3557489285.50294</v>
+        <v>4503286409.221802</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09518909068119336</v>
+        <v>0.1353329671848157</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05134797482781788</v>
+        <v>0.03821804759009619</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1739350534.701595</v>
+        <v>1795282477.371447</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1084081824144652</v>
+        <v>0.161201975321145</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03980544182479894</v>
+        <v>0.02644726838923533</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4806137486.871468</v>
+        <v>4438339892.497043</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07905692413626354</v>
+        <v>0.08228442971459939</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03673213618101383</v>
+        <v>0.03748347406907513</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3930115333.279179</v>
+        <v>3641441302.274069</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09105894983587107</v>
+        <v>0.1154588850100626</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0273289940530606</v>
+        <v>0.02253883917316476</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4961381869.28966</v>
+        <v>4729412328.663697</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1451778706246561</v>
+        <v>0.1539449731675552</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02380321326458459</v>
+        <v>0.02683697812972709</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2130610264.933718</v>
+        <v>2334018196.453808</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1213013408736522</v>
+        <v>0.10656810244993</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03442762448182018</v>
+        <v>0.03232201689294185</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2589548457.33525</v>
+        <v>2374698691.518579</v>
       </c>
       <c r="F84" t="n">
-        <v>0.102914063856459</v>
+        <v>0.1157590244182517</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04894188119418532</v>
+        <v>0.05061247549859793</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3646256015.190378</v>
+        <v>2311020381.17485</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1274104238181537</v>
+        <v>0.137717991170044</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05449177773952544</v>
+        <v>0.05625681107268763</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2646595216.982452</v>
+        <v>1813208835.200106</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1370155686558199</v>
+        <v>0.1228766875099736</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02372683928845502</v>
+        <v>0.01745680852539144</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>937977622.7259166</v>
+        <v>1343395291.7044</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1696173599680653</v>
+        <v>0.1621077227264029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04018658537948893</v>
+        <v>0.04004654595337168</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3156966288.57105</v>
+        <v>3071376124.953097</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1689756245169617</v>
+        <v>0.1651438087939008</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03807601125875675</v>
+        <v>0.02516723685379157</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2496212326.990236</v>
+        <v>2117344707.520795</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1365280438170337</v>
+        <v>0.156799779088925</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03004795557897177</v>
+        <v>0.03164179591524016</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1684522606.80551</v>
+        <v>1916372278.898475</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08901249241464954</v>
+        <v>0.09814907906865317</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03442513421876457</v>
+        <v>0.04532579435178107</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1291137179.167651</v>
+        <v>2086143491.206269</v>
       </c>
       <c r="F91" t="n">
-        <v>0.124120745501157</v>
+        <v>0.135724089198116</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05716568255531396</v>
+        <v>0.05676157692559511</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2953312328.914367</v>
+        <v>1865389898.132269</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08166212718590345</v>
+        <v>0.08196909332303016</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04127963929758129</v>
+        <v>0.03362113927615168</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3732869957.615275</v>
+        <v>3607671379.429346</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1228760440382947</v>
+        <v>0.0952461471730866</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03377507334706215</v>
+        <v>0.05073673375578547</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2039742242.307718</v>
+        <v>2148431371.330833</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1132991411198717</v>
+        <v>0.1409535750983029</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04050122627751795</v>
+        <v>0.04066918570910948</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3072839535.321733</v>
+        <v>2476649176.607909</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1044384071423172</v>
+        <v>0.1171614933454424</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03359496408004806</v>
+        <v>0.03336050447987866</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1891964073.576518</v>
+        <v>1907436421.530291</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1268298059376829</v>
+        <v>0.1311752234185419</v>
       </c>
       <c r="G96" t="n">
-        <v>0.040795136368964</v>
+        <v>0.03231853722895784</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3436063578.264794</v>
+        <v>4084479682.84989</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1215350475201377</v>
+        <v>0.1138842506136075</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01851677848219309</v>
+        <v>0.02011967608630818</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3591098002.049102</v>
+        <v>3336277079.19212</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1164372258224982</v>
+        <v>0.08928004775091385</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0256349448334281</v>
+        <v>0.02310819115152354</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2699678323.476296</v>
+        <v>3272715205.7901</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1365357208354211</v>
+        <v>0.1475841753437359</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03135441823850305</v>
+        <v>0.02452096557099608</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4224296914.855333</v>
+        <v>3363349222.32173</v>
       </c>
       <c r="F100" t="n">
-        <v>0.14590117394407</v>
+        <v>0.141003519976615</v>
       </c>
       <c r="G100" t="n">
-        <v>0.022034009006876</v>
+        <v>0.02388813662730563</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3505697770.340174</v>
+        <v>2242678431.977325</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1981387053250467</v>
+        <v>0.2035681231483662</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0416719040357223</v>
+        <v>0.03746396921138798</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_250.xlsx
+++ b/output/fit_clients/fit_round_250.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1746895097.010598</v>
+        <v>2475117984.980405</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08585579808082665</v>
+        <v>0.08196500609800263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04286897460920198</v>
+        <v>0.02909732524835774</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1905419000.390688</v>
+        <v>2273083670.244531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1580571458785403</v>
+        <v>0.1788054599817223</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03148849302945638</v>
+        <v>0.04308706773312184</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4075100811.756635</v>
+        <v>3899374830.038358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1346596257634395</v>
+        <v>0.1541056579574704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02983097362411734</v>
+        <v>0.02825124567300632</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>135</v>
+      </c>
+      <c r="J4" t="n">
+        <v>249</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86.23074054950609</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4149524172.032892</v>
+        <v>3634981934.033923</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08264188482616397</v>
+        <v>0.1002905560314538</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04228137887306103</v>
+        <v>0.04715662595775052</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>102</v>
+      </c>
+      <c r="J5" t="n">
+        <v>250</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2689053180.472041</v>
+        <v>2862965174.236091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1273382811669103</v>
+        <v>0.09628711724326137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04073703822325984</v>
+        <v>0.03961146649942814</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2645628804.668808</v>
+        <v>2809546094.758543</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07818707606288604</v>
+        <v>0.07552896854383463</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04171283746062155</v>
+        <v>0.04496819147058529</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2452300098.972286</v>
+        <v>2887727348.834673</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1500043325763919</v>
+        <v>0.2175413085331634</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03017036720986003</v>
+        <v>0.02956795830438386</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1631275462.105358</v>
+        <v>1415120417.552076</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1317060033604035</v>
+        <v>0.1321504358706196</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02978290666311737</v>
+        <v>0.02656575442451518</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5220341405.73638</v>
+        <v>4772038160.675102</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1608300571945761</v>
+        <v>0.2089056370394195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03786422811619636</v>
+        <v>0.04195715355300669</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>227</v>
+      </c>
+      <c r="J10" t="n">
+        <v>250</v>
+      </c>
+      <c r="K10" t="n">
+        <v>108.7251923014791</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3518431616.797646</v>
+        <v>3310980686.391898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1756193654519992</v>
+        <v>0.1441952360491587</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03527771384485064</v>
+        <v>0.0443096784519988</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>103</v>
+      </c>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="n">
+        <v>69.52590044818659</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2565067562.036971</v>
+        <v>2362962081.386182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1252716644162508</v>
+        <v>0.1760346441043455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04988817798961766</v>
+        <v>0.04714148239950978</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5353542732.161555</v>
+        <v>4688131292.125957</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06330749797040862</v>
+        <v>0.09314620561757343</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02169939895635943</v>
+        <v>0.02113988199435216</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>127</v>
+      </c>
+      <c r="J13" t="n">
+        <v>249</v>
+      </c>
+      <c r="K13" t="n">
+        <v>102.3336344033868</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2567503755.304165</v>
+        <v>3814247892.436742</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1467864872159475</v>
+        <v>0.1720704639644207</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03439084673920853</v>
+        <v>0.04217292466155574</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>49</v>
+      </c>
+      <c r="J14" t="n">
+        <v>250</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1277406584.646236</v>
+        <v>1648616311.505543</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07711257046400832</v>
+        <v>0.1051252393650391</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03711090350410496</v>
+        <v>0.03432229935244811</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2868762195.035003</v>
+        <v>2762126518.219708</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1093720949530314</v>
+        <v>0.09258201934399071</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0438959453249785</v>
+        <v>0.04431364501016114</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3397765458.818131</v>
+        <v>3779633246.40623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1095262306409955</v>
+        <v>0.1650921755642267</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04891890969104821</v>
+        <v>0.0512480466824562</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>120</v>
+      </c>
+      <c r="J17" t="n">
+        <v>250</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2782207418.233844</v>
+        <v>3742658336.402664</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1747432147912157</v>
+        <v>0.14412640825564</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02498546431043459</v>
+        <v>0.02366975875484554</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>62</v>
+      </c>
+      <c r="J18" t="n">
+        <v>250</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>970574524.1701142</v>
+        <v>834380908.4320824</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1853551917172598</v>
+        <v>0.126872543243337</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0172293166932275</v>
+        <v>0.02461950586641459</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1994892434.871846</v>
+        <v>2006271696.109615</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1136676148467682</v>
+        <v>0.1095255185324041</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03053091295745528</v>
+        <v>0.02469020269430123</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2321716286.383424</v>
+        <v>2661614315.137556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07264645917988964</v>
+        <v>0.09263266163725148</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04307109429499</v>
+        <v>0.02886041085760086</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2898842348.943822</v>
+        <v>3928275319.507427</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1361762554552912</v>
+        <v>0.1384995263703079</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05320585428896976</v>
+        <v>0.04092105602199606</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>250</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1294930687.730908</v>
+        <v>1069978701.488143</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1423829055673505</v>
+        <v>0.1800603526677064</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04394467373516139</v>
+        <v>0.0497488050535836</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3621866870.206708</v>
+        <v>2865837580.23824</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1189652112202767</v>
+        <v>0.1249938971930759</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0295367605339044</v>
+        <v>0.03716465614714635</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>246</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1021188458.817508</v>
+        <v>1076989876.902329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07923110571391248</v>
+        <v>0.07608003022639637</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02453162350494492</v>
+        <v>0.0235255009583801</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1112415719.79034</v>
+        <v>1452415679.520449</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0773097828955769</v>
+        <v>0.1123593932437834</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03148082885208803</v>
+        <v>0.03374418169339032</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3132925732.05347</v>
+        <v>3102508536.389352</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1132027785521562</v>
+        <v>0.1209611886090289</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01652699469695735</v>
+        <v>0.02647056876585781</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>101</v>
+      </c>
+      <c r="J27" t="n">
+        <v>248</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3024962475.270869</v>
+        <v>2946247206.688098</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1396914798287943</v>
+        <v>0.1007543628983975</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04365027590546105</v>
+        <v>0.03890843433094025</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4856000428.873564</v>
+        <v>4264983665.148249</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09522549178869311</v>
+        <v>0.119017362302032</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02866566435211322</v>
+        <v>0.03792835640184813</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>238</v>
+      </c>
+      <c r="J29" t="n">
+        <v>250</v>
+      </c>
+      <c r="K29" t="n">
+        <v>110.8143266611942</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2412217900.058362</v>
+        <v>1880137370.380891</v>
       </c>
       <c r="F30" t="n">
-        <v>0.138928835969118</v>
+        <v>0.120243631422153</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03581196268909789</v>
+        <v>0.03502961144465021</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1205823521.733371</v>
+        <v>1018805442.004156</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07682550137974481</v>
+        <v>0.09661703436492372</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04799187410931631</v>
+        <v>0.04455035435928707</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1419476051.532217</v>
+        <v>1685704244.682534</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09518810279888666</v>
+        <v>0.09786887973089219</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03825467812498025</v>
+        <v>0.03773792710614678</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2003782569.179659</v>
+        <v>2335396288.537001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.168277823398932</v>
+        <v>0.1282148158528228</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05438766675928943</v>
+        <v>0.05807922052644194</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1310632546.742788</v>
+        <v>1222534768.806636</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1006847286755377</v>
+        <v>0.09977070295523577</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01719832222223986</v>
+        <v>0.02552640280833613</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>826275672.7902771</v>
+        <v>1103318659.519776</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0779537160653317</v>
+        <v>0.09267452704249071</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04252824429457795</v>
+        <v>0.02721082086179611</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2847076338.355008</v>
+        <v>3037158153.010145</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1352263528757806</v>
+        <v>0.1801320479902461</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02077565293730487</v>
+        <v>0.0269656198076997</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2662689619.126101</v>
+        <v>2749108428.98121</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1048770588145451</v>
+        <v>0.09216819792476824</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02685828646724699</v>
+        <v>0.0423909366699507</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1673241780.214741</v>
+        <v>2094877216.124001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08133343497679017</v>
+        <v>0.07516611293998639</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02801152770237025</v>
+        <v>0.03427793447220694</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2125750222.174752</v>
+        <v>1775776058.783541</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1229911348513048</v>
+        <v>0.1795951474348014</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02625238155396088</v>
+        <v>0.02185960874314823</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1485595471.985329</v>
+        <v>1282005333.012305</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1177254560243376</v>
+        <v>0.1233012879014735</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04253070402719447</v>
+        <v>0.0431372706327184</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1916084591.497248</v>
+        <v>2879023049.976018</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1089968708926439</v>
+        <v>0.1566163563701112</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03945259072134898</v>
+        <v>0.03761469936975839</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3049490097.989558</v>
+        <v>2863358906.030091</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1250185717459009</v>
+        <v>0.08567087071812714</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03237742018183585</v>
+        <v>0.03467148070211375</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>104</v>
+      </c>
+      <c r="J42" t="n">
+        <v>249</v>
+      </c>
+      <c r="K42" t="n">
+        <v>50.43175680441647</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2638209173.555533</v>
+        <v>2481790139.839832</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1387232212436724</v>
+        <v>0.1391118771408383</v>
       </c>
       <c r="G43" t="n">
-        <v>0.023972001367776</v>
+        <v>0.0212959514288403</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2016142088.783681</v>
+        <v>2148343489.658345</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08150441778393418</v>
+        <v>0.07705365259498723</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03174378578815568</v>
+        <v>0.02530107714511289</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2204554654.594938</v>
+        <v>2160971749.373837</v>
       </c>
       <c r="F45" t="n">
-        <v>0.133054058960953</v>
+        <v>0.139410302325019</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0540847610237</v>
+        <v>0.05108706646541944</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4198511699.8339</v>
+        <v>4579420100.376609</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1181875636481926</v>
+        <v>0.112540227923317</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03817235482048002</v>
+        <v>0.05586686464330625</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>144</v>
+      </c>
+      <c r="J46" t="n">
+        <v>249</v>
+      </c>
+      <c r="K46" t="n">
+        <v>102.7530612688333</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4645793359.57515</v>
+        <v>3945955138.818874</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1550657058756593</v>
+        <v>0.1527075446629525</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03911190045533434</v>
+        <v>0.04965134631434363</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>112</v>
+      </c>
+      <c r="J47" t="n">
+        <v>250</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3413326666.801011</v>
+        <v>4166421739.579415</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06797271428606251</v>
+        <v>0.09920067802161552</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02688743433338729</v>
+        <v>0.03099470733482318</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>124</v>
+      </c>
+      <c r="J48" t="n">
+        <v>250</v>
+      </c>
+      <c r="K48" t="n">
+        <v>106.133789040578</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1759851769.271131</v>
+        <v>1548973577.00872</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1329621697663698</v>
+        <v>0.1635897114808596</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03273624661005921</v>
+        <v>0.02749416778179322</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3104219065.88032</v>
+        <v>2978397885.564187</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1512687018571253</v>
+        <v>0.1274155042810516</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04800657512170779</v>
+        <v>0.03473004553969823</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>81</v>
+      </c>
+      <c r="J50" t="n">
+        <v>247</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1529037699.820181</v>
+        <v>1187337158.566639</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1372612635068929</v>
+        <v>0.181164049416843</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04772003021534926</v>
+        <v>0.04112604673290896</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4668484626.137878</v>
+        <v>4214873552.669793</v>
       </c>
       <c r="F52" t="n">
-        <v>0.122779221036184</v>
+        <v>0.09359571249619947</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04730120938375228</v>
+        <v>0.04317703704501442</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>161</v>
+      </c>
+      <c r="J52" t="n">
+        <v>249</v>
+      </c>
+      <c r="K52" t="n">
+        <v>98.10082153153105</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3633791372.39346</v>
+        <v>3622622749.386713</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1580783619502342</v>
+        <v>0.2021150782290744</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03147790952900994</v>
+        <v>0.02692850234802732</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>250</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4388496593.847886</v>
+        <v>3274062217.174018</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1643512593163362</v>
+        <v>0.1567835661871273</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0415052413931832</v>
+        <v>0.03975867334046831</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>132</v>
+      </c>
+      <c r="J54" t="n">
+        <v>249</v>
+      </c>
+      <c r="K54" t="n">
+        <v>61.11828083079369</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3864309847.207749</v>
+        <v>4090893932.6584</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1440529692405552</v>
+        <v>0.1670937377421052</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02711480440204359</v>
+        <v>0.03232620254085267</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>112</v>
+      </c>
+      <c r="J55" t="n">
+        <v>249</v>
+      </c>
+      <c r="K55" t="n">
+        <v>95.34048296059363</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1482842843.826583</v>
+        <v>1377159182.234399</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1600455873142821</v>
+        <v>0.1298464429197385</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04791950323724582</v>
+        <v>0.05558366120093582</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4573409031.671987</v>
+        <v>3833147041.123724</v>
       </c>
       <c r="F57" t="n">
-        <v>0.142479849499684</v>
+        <v>0.1833678106972205</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02349516292960488</v>
+        <v>0.02572688326568239</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>98</v>
+      </c>
+      <c r="J57" t="n">
+        <v>250</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1728755181.060623</v>
+        <v>1702970668.591128</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1942679644428251</v>
+        <v>0.1892957392127599</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03188352412377308</v>
+        <v>0.03311990132961432</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3322110144.500772</v>
+        <v>4511139990.676976</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1146140875672866</v>
+        <v>0.09579770209978539</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03136082003166291</v>
+        <v>0.03385810788339736</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>121</v>
+      </c>
+      <c r="J59" t="n">
+        <v>249</v>
+      </c>
+      <c r="K59" t="n">
+        <v>95.04324517830695</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2881900741.469231</v>
+        <v>2509566447.397426</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1824288736005571</v>
+        <v>0.1448414402041203</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03335909058127987</v>
+        <v>0.03000771190165885</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2584,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2873738994.689751</v>
+        <v>2262548707.890346</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1524479838488715</v>
+        <v>0.1514889266882956</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02464152285432506</v>
+        <v>0.02324714954188703</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="n">
+        <v>34.04997209417804</v>
       </c>
     </row>
     <row r="62">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1417935119.260758</v>
+        <v>1791079959.713485</v>
       </c>
       <c r="F62" t="n">
-        <v>0.149742479432671</v>
+        <v>0.1268527606076654</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03079752564764791</v>
+        <v>0.04665022198814412</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4615660860.167923</v>
+        <v>4923694085.474177</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06766030009896637</v>
+        <v>0.08440970182892414</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04582750019529631</v>
+        <v>0.04699203150534063</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>122</v>
+      </c>
+      <c r="J63" t="n">
+        <v>249</v>
+      </c>
+      <c r="K63" t="n">
+        <v>96.5120602360245</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5444466567.015464</v>
+        <v>4221224838.020648</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1669305460395888</v>
+        <v>0.1595557254864689</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02326889611235355</v>
+        <v>0.03445132648792065</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>123</v>
+      </c>
+      <c r="J64" t="n">
+        <v>250</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3943049531.570118</v>
+        <v>5516356766.461479</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1269457391187938</v>
+        <v>0.1302017262908854</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0322433461341969</v>
+        <v>0.0322617235295717</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>200</v>
+      </c>
+      <c r="J65" t="n">
+        <v>250</v>
+      </c>
+      <c r="K65" t="n">
+        <v>105.207747453276</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3906321880.495318</v>
+        <v>5253976153.090052</v>
       </c>
       <c r="F66" t="n">
-        <v>0.110789404547366</v>
+        <v>0.1342827737137031</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03367470837117902</v>
+        <v>0.04597470745414903</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>123</v>
+      </c>
+      <c r="J66" t="n">
+        <v>250</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2146245026.488301</v>
+        <v>2135513530.80191</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07037450689917055</v>
+        <v>0.0939165405528869</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04691616197739301</v>
+        <v>0.04979153790774962</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4515289283.208386</v>
+        <v>3810273238.31426</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1421259405435042</v>
+        <v>0.1589450841649551</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03587970090023285</v>
+        <v>0.04096646506214825</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>127</v>
+      </c>
+      <c r="J68" t="n">
+        <v>250</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1667549714.036564</v>
+        <v>1998048106.760866</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1116545139672176</v>
+        <v>0.1678595676418476</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0449230309459545</v>
+        <v>0.0559630389145396</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3097785645.994107</v>
+        <v>2979525613.395353</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09063161492247321</v>
+        <v>0.07820377265706391</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03054111154459691</v>
+        <v>0.04556059410779317</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3624355121.340676</v>
+        <v>5182030112.922599</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1371621840703491</v>
+        <v>0.1463364237880766</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02899156602458263</v>
+        <v>0.02912016940112654</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>188</v>
+      </c>
+      <c r="J71" t="n">
+        <v>250</v>
+      </c>
+      <c r="K71" t="n">
+        <v>105.5447050398678</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1731693657.617495</v>
+        <v>1878408458.689579</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1056234837779553</v>
+        <v>0.07519771763803995</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03451306028686687</v>
+        <v>0.05002697380526572</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3008448565.380365</v>
+        <v>2778104752.982002</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1128158420567638</v>
+        <v>0.08939460189456569</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04063361947834131</v>
+        <v>0.0404910403264539</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>248</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2747256744.442873</v>
+        <v>2439298255.491713</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1363657767605169</v>
+        <v>0.131203920307296</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02232343708061233</v>
+        <v>0.02327134647193087</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>71</v>
+      </c>
+      <c r="J74" t="n">
+        <v>249</v>
+      </c>
+      <c r="K74" t="n">
+        <v>37.14049220182127</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1510679482.282162</v>
+        <v>2079863026.910924</v>
       </c>
       <c r="F75" t="n">
-        <v>0.132705062161673</v>
+        <v>0.1218526069980746</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02753293922646574</v>
+        <v>0.03112371038310489</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5142256129.808585</v>
+        <v>4760144067.044311</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1087834268591873</v>
+        <v>0.1101545946321594</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02508368082965881</v>
+        <v>0.02197077809659136</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>116</v>
+      </c>
+      <c r="J76" t="n">
+        <v>250</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1888683175.214015</v>
+        <v>1686052531.419247</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1587276403721877</v>
+        <v>0.1515916256561172</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02532824381613681</v>
+        <v>0.02351497424656883</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4503286409.221802</v>
+        <v>3343033752.920177</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1353329671848157</v>
+        <v>0.09713765521778378</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03821804759009619</v>
+        <v>0.04236286690562414</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>124</v>
+      </c>
+      <c r="J78" t="n">
+        <v>248</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1795282477.371447</v>
+        <v>1898699463.257811</v>
       </c>
       <c r="F79" t="n">
-        <v>0.161201975321145</v>
+        <v>0.1635271491232672</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02644726838923533</v>
+        <v>0.03954205495190903</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4438339892.497043</v>
+        <v>4247904872.858386</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08228442971459939</v>
+        <v>0.1044053388299575</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03748347406907513</v>
+        <v>0.03191586978745235</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>122</v>
+      </c>
+      <c r="J80" t="n">
+        <v>249</v>
+      </c>
+      <c r="K80" t="n">
+        <v>75.83386137287611</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3641441302.274069</v>
+        <v>4411585326.910368</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1154588850100626</v>
+        <v>0.1033095727203075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02253883917316476</v>
+        <v>0.02817144646401194</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>115</v>
+      </c>
+      <c r="J81" t="n">
+        <v>249</v>
+      </c>
+      <c r="K81" t="n">
+        <v>88.67615449429316</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4729412328.663697</v>
+        <v>4820229004.279501</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1539449731675552</v>
+        <v>0.1471723432821254</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02683697812972709</v>
+        <v>0.02831070124789546</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>189</v>
+      </c>
+      <c r="J82" t="n">
+        <v>250</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2334018196.453808</v>
+        <v>2389248876.025032</v>
       </c>
       <c r="F83" t="n">
-        <v>0.10656810244993</v>
+        <v>0.1156584648004136</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03232201689294185</v>
+        <v>0.02814817080715331</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2374698691.518579</v>
+        <v>2602279850.771085</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1157590244182517</v>
+        <v>0.08141430524049892</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05061247549859793</v>
+        <v>0.03677697900329262</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2311020381.17485</v>
+        <v>3139819496.141933</v>
       </c>
       <c r="F85" t="n">
-        <v>0.137717991170044</v>
+        <v>0.1151095110551923</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05625681107268763</v>
+        <v>0.0539528045808686</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>35</v>
+      </c>
+      <c r="J85" t="n">
+        <v>248</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1813208835.200106</v>
+        <v>2652917858.477946</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1228766875099736</v>
+        <v>0.1656939778235082</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01745680852539144</v>
+        <v>0.02153219922373176</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1343395291.7044</v>
+        <v>1000231353.205333</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1621077227264029</v>
+        <v>0.1679148437841999</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04004654595337168</v>
+        <v>0.04414542706634726</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3071376124.953097</v>
+        <v>3068827787.132962</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1651438087939008</v>
+        <v>0.1189387362754867</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02516723685379157</v>
+        <v>0.03784020729750515</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>36</v>
+      </c>
+      <c r="J88" t="n">
+        <v>247</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2117344707.520795</v>
+        <v>2166867380.235737</v>
       </c>
       <c r="F89" t="n">
-        <v>0.156799779088925</v>
+        <v>0.1236791957725233</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03164179591524016</v>
+        <v>0.03199896770743486</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1916372278.898475</v>
+        <v>1891345668.403552</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09814907906865317</v>
+        <v>0.1277347484106323</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04532579435178107</v>
+        <v>0.04834965405232934</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2086143491.206269</v>
+        <v>1431993784.681681</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135724089198116</v>
+        <v>0.1177919405748927</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05676157692559511</v>
+        <v>0.04619645133847704</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1865389898.132269</v>
+        <v>2227493666.588213</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08196909332303016</v>
+        <v>0.08950132463777334</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03362113927615168</v>
+        <v>0.04449297290443827</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3607671379.429346</v>
+        <v>3719984223.532008</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0952461471730866</v>
+        <v>0.1361532745892443</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05073673375578547</v>
+        <v>0.05294452671677938</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>110</v>
+      </c>
+      <c r="J93" t="n">
+        <v>250</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2148431371.330833</v>
+        <v>1982721110.27927</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1409535750983029</v>
+        <v>0.1402124215164224</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04066918570910948</v>
+        <v>0.03577848556542768</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2476649176.607909</v>
+        <v>2310724683.056431</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1171614933454424</v>
+        <v>0.1379503748494147</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03336050447987866</v>
+        <v>0.03883522252213436</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1907436421.530291</v>
+        <v>1528270944.071945</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1311752234185419</v>
+        <v>0.1103135835621109</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03231853722895784</v>
+        <v>0.04384488981017969</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4084479682.84989</v>
+        <v>3543126904.838547</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1138842506136075</v>
+        <v>0.1697673064742678</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02011967608630818</v>
+        <v>0.02076881757630486</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>122</v>
+      </c>
+      <c r="J97" t="n">
+        <v>249</v>
+      </c>
+      <c r="K97" t="n">
+        <v>72.99533191826147</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3336277079.19212</v>
+        <v>3567918608.337304</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08928004775091385</v>
+        <v>0.08411076114137689</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02310819115152354</v>
+        <v>0.02677476097604439</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>61</v>
+      </c>
+      <c r="J98" t="n">
+        <v>247</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3272715205.7901</v>
+        <v>2592828276.660993</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1475841753437359</v>
+        <v>0.1136643205958832</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02452096557099608</v>
+        <v>0.02593518239664194</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3363349222.32173</v>
+        <v>3958715336.529562</v>
       </c>
       <c r="F100" t="n">
-        <v>0.141003519976615</v>
+        <v>0.1299520938781291</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02388813662730563</v>
+        <v>0.0274420271624041</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>104</v>
+      </c>
+      <c r="J100" t="n">
+        <v>250</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2242678431.977325</v>
+        <v>2785323333.497396</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2035681231483662</v>
+        <v>0.1775662804902456</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03746396921138798</v>
+        <v>0.04844844772656008</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
